--- a/Waxing_Ver_02_Documents/02_Specification/03_DataBase/Twitter.xlsx
+++ b/Waxing_Ver_02_Documents/02_Specification/03_DataBase/Twitter.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14955" windowHeight="7560"/>
   </bookViews>
   <sheets>
-    <sheet name="TASKS" sheetId="1" r:id="rId1"/>
+    <sheet name="Database_Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">TASKS!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Database_Sheet!#REF!</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -459,83 +459,83 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -809,7 +809,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -842,38 +842,38 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
       <c r="R2" s="22"/>
       <c r="S2" s="14"/>
-      <c r="T2" s="42" t="s">
+      <c r="T2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
       <c r="AG2" s="14"/>
       <c r="AH2" s="14"/>
       <c r="AI2" s="14"/>
@@ -883,38 +883,38 @@
       <c r="AM2" s="20"/>
     </row>
     <row r="3" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
       <c r="R3" s="23"/>
       <c r="S3" s="9"/>
-      <c r="T3" s="43" t="s">
+      <c r="T3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9"/>
       <c r="AI3" s="9"/>
@@ -923,36 +923,36 @@
       <c r="AL3" s="9"/>
     </row>
     <row r="4" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
       <c r="AG4" s="14"/>
       <c r="AH4" s="14"/>
       <c r="AI4" s="14"/>
@@ -962,36 +962,36 @@
       <c r="AM4" s="20"/>
     </row>
     <row r="5" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49"/>
-      <c r="AD5" s="49"/>
-      <c r="AE5" s="49"/>
-      <c r="AF5" s="49"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
       <c r="AG5" s="21"/>
       <c r="AH5" s="21"/>
       <c r="AI5" s="21"/>
@@ -1015,21 +1015,21 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
@@ -1057,58 +1057,58 @@
       <c r="AN7" s="15"/>
     </row>
     <row r="8" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="34" t="s">
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="35" t="s">
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35" t="s">
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35" t="s">
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35" t="s">
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35" t="s">
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="35" t="s">
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="35"/>
-      <c r="AI8" s="44"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="37"/>
       <c r="AJ8" s="16"/>
       <c r="AK8" s="17"/>
       <c r="AL8" s="17"/>
@@ -1116,42 +1116,42 @@
       <c r="AN8" s="17"/>
     </row>
     <row r="9" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="47">
+      <c r="B9" s="26">
         <v>1</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30"/>
-      <c r="AI9" s="31"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="40"/>
       <c r="AJ9" s="18"/>
       <c r="AK9" s="19"/>
       <c r="AL9" s="19"/>
@@ -1159,40 +1159,40 @@
       <c r="AN9" s="19"/>
     </row>
     <row r="10" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="30"/>
-      <c r="AG10" s="30"/>
-      <c r="AH10" s="30"/>
-      <c r="AI10" s="31"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="40"/>
       <c r="AJ10" s="18"/>
       <c r="AK10" s="19"/>
       <c r="AL10" s="19"/>
@@ -1200,40 +1200,40 @@
       <c r="AN10" s="19"/>
     </row>
     <row r="11" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="30"/>
-      <c r="AI11" s="31"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="40"/>
       <c r="AJ11" s="18"/>
       <c r="AK11" s="19"/>
       <c r="AL11" s="19"/>
@@ -1241,40 +1241,40 @@
       <c r="AN11" s="19"/>
     </row>
     <row r="12" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="29"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="44"/>
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="47"/>
       <c r="AJ12" s="18"/>
       <c r="AK12" s="19"/>
       <c r="AL12" s="19"/>
@@ -1283,6 +1283,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="AA12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="AA11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="AA10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="AA9:AE9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T2:AF2"/>
+    <mergeCell ref="T3:AF3"/>
+    <mergeCell ref="T4:AF4"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Z8"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
@@ -1292,19 +1330,6 @@
     <mergeCell ref="B7:N7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:G8"/>
-    <mergeCell ref="T2:AF2"/>
-    <mergeCell ref="T3:AF3"/>
-    <mergeCell ref="T4:AF4"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="E3:Q3"/>
-    <mergeCell ref="E4:Q4"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="Q8:S8"/>
     <mergeCell ref="AF9:AI9"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="H10:M10"/>
@@ -1312,31 +1337,6 @@
     <mergeCell ref="Q10:S10"/>
     <mergeCell ref="T10:V10"/>
     <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="AA10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="AA9:AE9"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="AA12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="AA11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:V12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
